--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/data_combined_bal_accuracy_grouped.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/data_combined_bal_accuracy_grouped.xlsx
@@ -465,10 +465,10 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6625000000000001</v>
+        <v>0.5701482873851296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>0.5221198830409357</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0.5694444444444444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.64</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.518796992481203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.518796992481203</v>
+        <v>0.5701482873851296</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4342105263157895</v>
+        <v>0.5221198830409357</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0.55</v>
       </c>
       <c r="C5" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6625000000000001</v>
+        <v>0.5950000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7749999999999999</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>0.55</v>
       </c>
       <c r="C7" t="n">
-        <v>0.55</v>
+        <v>0.6151482873851295</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55</v>
+        <v>0.5221198830409357</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6625000000000001</v>
+        <v>0.6175</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6625000000000001</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6625000000000001</v>
+        <v>0.5662593984962406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6625000000000001</v>
+        <v>0.5268421052631579</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>0.55</v>
       </c>
       <c r="C10" t="n">
-        <v>0.55</v>
+        <v>0.643888888888889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.55</v>
+        <v>0.5677777777777778</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>0.8875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8875</v>
+        <v>0.6175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.55</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>0.55</v>
       </c>
       <c r="C12" t="n">
-        <v>0.55</v>
+        <v>0.5476482873851295</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4375</v>
+        <v>0.5221198830409357</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>0.4375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4375</v>
+        <v>0.5950000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4375</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0.6625000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6625000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="D14" t="n">
-        <v>0.55</v>
+        <v>0.5275000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6625000000000001</v>
+        <v>0.5950000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.55</v>
+        <v>0.5950000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.55</v>
+        <v>0.595</v>
       </c>
     </row>
   </sheetData>
